--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R205_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R205_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4092" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +153,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +183,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="6" customFormat="true">
+      <c r="A1" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="6">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +230,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +276,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -390,10 +414,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="J9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -437,28 +461,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="2">
+      <c r="A11" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="2">
+      <c r="C11" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -483,28 +507,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="C13" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="2">
+      <c r="D13" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="2">
+      <c r="I13" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -621,10 +645,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="2" t="s">
+      <c r="J17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -668,28 +692,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="2">
+      <c r="A19" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s" s="2">
+      <c r="C19" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -714,28 +738,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="2">
+      <c r="C21" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="2">
+      <c r="D21" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="2">
+      <c r="I21" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -852,10 +876,10 @@
       <c r="I25">
         <f>((C25-C24)^2+(D25- D24)^2)^.5</f>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="2" t="s">
+      <c r="J25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L25" t="n">
@@ -899,28 +923,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="2">
+      <c r="A27" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C27" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s" s="2">
+      <c r="C27" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -945,28 +969,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C29" t="s" s="2">
+      <c r="C29" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D29" t="s" s="2">
+      <c r="D29" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I29" t="s" s="2">
+      <c r="I29" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1054,10 +1078,10 @@
       <c r="I32">
         <f>((C32-C31)^2+(D32- D31)^2)^.5</f>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="2" t="s">
+      <c r="J32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L32" t="n">
@@ -1101,28 +1125,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="2">
+      <c r="A34" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C34" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s" s="2">
+      <c r="C34" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1147,28 +1171,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C36" t="s" s="2">
+      <c r="C36" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D36" t="s" s="2">
+      <c r="D36" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I36" t="s" s="2">
+      <c r="I36" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1285,10 +1309,10 @@
       <c r="I40">
         <f>((C40-C39)^2+(D40- D39)^2)^.5</f>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="2" t="s">
+      <c r="J40" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L40" t="n">
@@ -1332,28 +1356,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="2">
+      <c r="A42" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s" s="2">
+      <c r="C42" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1378,28 +1402,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C44" t="s" s="2">
+      <c r="C44" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D44" t="s" s="2">
+      <c r="D44" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I44" t="s" s="2">
+      <c r="I44" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1487,10 +1511,10 @@
       <c r="I47">
         <f>((C47-C46)^2+(D47- D46)^2)^.5</f>
       </c>
-      <c r="J47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="2" t="s">
+      <c r="J47" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L47" t="n">
@@ -1534,28 +1558,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="2">
+      <c r="A49" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C49" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D49" t="s" s="2">
+      <c r="C49" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1580,28 +1604,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C51" t="s" s="2">
+      <c r="C51" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D51" t="s" s="2">
+      <c r="D51" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I51" t="s" s="2">
+      <c r="I51" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1689,10 +1713,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="2" t="s">
+      <c r="J54" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1736,28 +1760,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="2">
+      <c r="A56" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s" s="2">
+      <c r="C56" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1782,28 +1806,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="2">
+      <c r="C58" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="2">
+      <c r="D58" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="2">
+      <c r="I58" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1891,10 +1915,10 @@
       <c r="I61">
         <f>((C61-C60)^2+(D61- D60)^2)^.5</f>
       </c>
-      <c r="J61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K61" s="2" t="s">
+      <c r="J61" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K61" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L61" t="n">
@@ -1938,28 +1962,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="2">
+      <c r="A63" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C63" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D63" t="s" s="2">
+      <c r="C63" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1984,28 +2008,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C65" t="s" s="2">
+      <c r="C65" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D65" t="s" s="2">
+      <c r="D65" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I65" t="s" s="2">
+      <c r="I65" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2122,10 +2146,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="2" t="s">
+      <c r="J69" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2169,28 +2193,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="2">
+      <c r="A71" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="2">
+      <c r="C71" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2215,28 +2239,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="2">
+      <c r="C73" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="2">
+      <c r="D73" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="2">
+      <c r="I73" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2353,10 +2377,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K77" s="2" t="s">
+      <c r="J77" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K77" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2400,28 +2424,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="2">
+      <c r="A79" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D79" t="s" s="2">
+      <c r="C79" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2446,28 +2470,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="2">
+      <c r="C81" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="2">
+      <c r="D81" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="2">
+      <c r="I81" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2555,10 +2579,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K84" s="2" t="s">
+      <c r="J84" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2602,28 +2626,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="2">
+      <c r="A86" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D86" t="s" s="2">
+      <c r="C86" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2648,28 +2672,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="2">
+      <c r="C88" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="2">
+      <c r="D88" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="2">
+      <c r="I88" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2757,10 +2781,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K91" s="2" t="s">
+      <c r="J91" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K91" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2804,28 +2828,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="2">
+      <c r="A93" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D93" t="s" s="2">
+      <c r="C93" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2850,28 +2874,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="2">
+      <c r="C95" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="2">
+      <c r="D95" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="2">
+      <c r="I95" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2988,10 +3012,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="2" t="s">
+      <c r="J99" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3035,28 +3059,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="2">
+      <c r="A101" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="2">
+      <c r="C101" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3081,28 +3105,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="2">
+      <c r="C103" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="2">
+      <c r="D103" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="2">
+      <c r="I103" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3219,10 +3243,10 @@
       <c r="I107">
         <f>((C107-C106)^2+(D107- D106)^2)^.5</f>
       </c>
-      <c r="J107" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K107" s="2" t="s">
+      <c r="J107" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K107" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L107" t="n">
@@ -3266,28 +3290,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="2">
+      <c r="A109" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C109" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D109" t="s" s="2">
+      <c r="C109" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3312,28 +3336,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C111" t="s" s="2">
+      <c r="C111" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D111" t="s" s="2">
+      <c r="D111" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I111" t="s" s="2">
+      <c r="I111" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3421,10 +3445,10 @@
       <c r="I114">
         <f>((C114-C113)^2+(D114- D113)^2)^.5</f>
       </c>
-      <c r="J114" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K114" s="2" t="s">
+      <c r="J114" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K114" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L114" t="n">
@@ -3468,28 +3492,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="2">
+      <c r="A116" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C116" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D116" t="s" s="2">
+      <c r="C116" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3514,28 +3538,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C118" t="s" s="2">
+      <c r="C118" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D118" t="s" s="2">
+      <c r="D118" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I118" t="s" s="2">
+      <c r="I118" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3710,10 +3734,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="2" t="s">
+      <c r="J124" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3757,28 +3781,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="2">
+      <c r="A126" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="2">
+      <c r="C126" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3803,28 +3827,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="2">
+      <c r="C128" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="2">
+      <c r="D128" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="2">
+      <c r="I128" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3941,10 +3965,10 @@
       <c r="I132">
         <f>((C132-C131)^2+(D132- D131)^2)^.5</f>
       </c>
-      <c r="J132" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K132" s="2" t="s">
+      <c r="J132" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K132" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L132" t="n">
@@ -3988,28 +4012,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s" s="2">
+      <c r="A134" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C134" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D134" t="s" s="2">
+      <c r="C134" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4034,28 +4058,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C136" t="s" s="2">
+      <c r="C136" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D136" t="s" s="2">
+      <c r="D136" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I136" t="s" s="2">
+      <c r="I136" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4201,10 +4225,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K141" s="2" t="s">
+      <c r="J141" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K141" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
@@ -4248,28 +4272,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s" s="2">
+      <c r="A143" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C143" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D143" t="s" s="2">
+      <c r="C143" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4294,28 +4318,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C145" t="s" s="2">
+      <c r="C145" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D145" t="s" s="2">
+      <c r="D145" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I145" t="s" s="2">
+      <c r="I145" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4403,10 +4427,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K148" s="2" t="s">
+      <c r="J148" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K148" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4450,28 +4474,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="2">
+      <c r="A150" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D150" t="s" s="2">
+      <c r="C150" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4496,28 +4520,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="2">
+      <c r="C152" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="2">
+      <c r="D152" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="2">
+      <c r="I152" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4605,10 +4629,10 @@
       <c r="I155">
         <f>((C155-C154)^2+(D155- D154)^2)^.5</f>
       </c>
-      <c r="J155" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K155" s="2" t="s">
+      <c r="J155" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K155" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L155" t="n">
@@ -4652,28 +4676,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="s" s="2">
+      <c r="A157" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C157" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D157" t="s" s="2">
+      <c r="C157" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4698,28 +4722,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C159" t="s" s="2">
+      <c r="C159" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D159" t="s" s="2">
+      <c r="D159" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I159" t="s" s="2">
+      <c r="I159" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4807,10 +4831,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="2" t="s">
+      <c r="J162" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4854,28 +4878,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="2">
+      <c r="A164" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="2">
+      <c r="C164" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4900,28 +4924,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="2">
+      <c r="I166" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5009,10 +5033,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="2" t="s">
+      <c r="J169" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5056,28 +5080,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="2">
+      <c r="A171" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="2">
+      <c r="C171" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5102,28 +5126,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="2">
+      <c r="C173" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="2">
+      <c r="D173" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="2">
+      <c r="I173" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5211,10 +5235,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="2" t="s">
+      <c r="J176" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5258,28 +5282,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="2">
+      <c r="A178" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="2">
+      <c r="C178" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5304,28 +5328,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="2">
+      <c r="C180" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="2">
+      <c r="D180" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="2">
+      <c r="I180" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5413,10 +5437,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K183" s="2" t="s">
+      <c r="J183" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K183" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5460,28 +5484,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="2">
+      <c r="A185" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D185" t="s" s="2">
+      <c r="C185" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5506,28 +5530,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="2">
+      <c r="C187" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="2">
+      <c r="D187" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="2">
+      <c r="I187" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5615,10 +5639,10 @@
       <c r="I190">
         <f>((C190-C189)^2+(D190- D189)^2)^.5</f>
       </c>
-      <c r="J190" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K190" s="2" t="s">
+      <c r="J190" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K190" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L190" t="n">
@@ -5662,28 +5686,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s" s="2">
+      <c r="A192" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B192" t="s" s="2">
+      <c r="B192" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C192" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D192" t="s" s="2">
+      <c r="C192" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D192" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E192" t="s" s="2">
+      <c r="E192" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F192" t="s" s="2">
+      <c r="F192" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G192" t="s" s="2">
+      <c r="G192" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H192" t="s" s="2">
+      <c r="H192" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5708,28 +5732,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C194" t="s" s="2">
+      <c r="C194" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D194" t="s" s="2">
+      <c r="D194" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I194" t="s" s="2">
+      <c r="I194" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5846,10 +5870,10 @@
       <c r="I198">
         <f>((C198-C197)^2+(D198- D197)^2)^.5</f>
       </c>
-      <c r="J198" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K198" s="2" t="s">
+      <c r="J198" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K198" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L198" t="n">
@@ -5893,28 +5917,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="s" s="2">
+      <c r="A200" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C200" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D200" t="s" s="2">
+      <c r="C200" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5939,28 +5963,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C202" t="s" s="2">
+      <c r="C202" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D202" t="s" s="2">
+      <c r="D202" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I202" t="s" s="2">
+      <c r="I202" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6048,10 +6072,10 @@
       <c r="I205">
         <f>((C205-C204)^2+(D205- D204)^2)^.5</f>
       </c>
-      <c r="J205" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K205" s="2" t="s">
+      <c r="J205" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K205" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L205" t="n">
@@ -6095,28 +6119,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s" s="2">
+      <c r="A207" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B207" t="s" s="2">
+      <c r="B207" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C207" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D207" t="s" s="2">
+      <c r="C207" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E207" t="s" s="2">
+      <c r="E207" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F207" t="s" s="2">
+      <c r="F207" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G207" t="s" s="2">
+      <c r="G207" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H207" t="s" s="2">
+      <c r="H207" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6141,28 +6165,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C209" t="s" s="2">
+      <c r="C209" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D209" t="s" s="2">
+      <c r="D209" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I209" t="s" s="2">
+      <c r="I209" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6250,10 +6274,10 @@
       <c r="I212">
         <f>((C212-C211)^2+(D212- D211)^2)^.5</f>
       </c>
-      <c r="J212" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K212" s="2" t="s">
+      <c r="J212" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K212" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L212" t="n">
@@ -6297,28 +6321,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="s" s="2">
+      <c r="A214" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C214" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D214" t="s" s="2">
+      <c r="C214" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D214" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6343,28 +6367,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="B216" t="s" s="2">
+      <c r="B216" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C216" t="s" s="2">
+      <c r="C216" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D216" t="s" s="2">
+      <c r="D216" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H216" t="s" s="2">
+      <c r="H216" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I216" t="s" s="2">
+      <c r="I216" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6510,10 +6534,10 @@
       <c r="I221">
         <f>((C221-C220)^2+(D221- D220)^2)^.5</f>
       </c>
-      <c r="J221" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K221" s="2" t="s">
+      <c r="J221" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K221" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L221" t="n">
@@ -6557,28 +6581,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="s" s="2">
+      <c r="A223" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B223" t="s" s="2">
+      <c r="B223" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C223" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D223" t="s" s="2">
+      <c r="C223" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D223" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E223" t="s" s="2">
+      <c r="E223" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F223" t="s" s="2">
+      <c r="F223" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G223" t="s" s="2">
+      <c r="G223" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H223" t="s" s="2">
+      <c r="H223" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6603,28 +6627,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="B225" t="s" s="2">
+      <c r="B225" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C225" t="s" s="2">
+      <c r="C225" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D225" t="s" s="2">
+      <c r="D225" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E225" t="s" s="2">
+      <c r="E225" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F225" t="s" s="2">
+      <c r="F225" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G225" t="s" s="2">
+      <c r="G225" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H225" t="s" s="2">
+      <c r="H225" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I225" t="s" s="2">
+      <c r="I225" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6770,10 +6794,10 @@
       <c r="I230">
         <f>((C230-C229)^2+(D230- D229)^2)^.5</f>
       </c>
-      <c r="J230" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K230" s="2" t="s">
+      <c r="J230" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K230" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L230" t="n">
@@ -6817,28 +6841,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s" s="2">
+      <c r="A232" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C232" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D232" t="s" s="2">
+      <c r="C232" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6863,28 +6887,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C234" t="s" s="2">
+      <c r="C234" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D234" t="s" s="2">
+      <c r="D234" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I234" t="s" s="2">
+      <c r="I234" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6972,10 +6996,10 @@
       <c r="I237">
         <f>((C237-C236)^2+(D237- D236)^2)^.5</f>
       </c>
-      <c r="J237" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K237" s="2" t="s">
+      <c r="J237" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K237" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L237" t="n">
@@ -7019,28 +7043,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="s" s="2">
+      <c r="A239" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B239" t="s" s="2">
+      <c r="B239" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C239" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D239" t="s" s="2">
+      <c r="C239" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E239" t="s" s="2">
+      <c r="E239" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F239" t="s" s="2">
+      <c r="F239" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G239" t="s" s="2">
+      <c r="G239" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H239" t="s" s="2">
+      <c r="H239" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7065,28 +7089,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="B241" t="s" s="2">
+      <c r="B241" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C241" t="s" s="2">
+      <c r="C241" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D241" t="s" s="2">
+      <c r="D241" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E241" t="s" s="2">
+      <c r="E241" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F241" t="s" s="2">
+      <c r="F241" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G241" t="s" s="2">
+      <c r="G241" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H241" t="s" s="2">
+      <c r="H241" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I241" t="s" s="2">
+      <c r="I241" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7261,10 +7285,10 @@
       <c r="I247">
         <f>((C247-C246)^2+(D247- D246)^2)^.5</f>
       </c>
-      <c r="J247" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K247" s="2" t="s">
+      <c r="J247" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K247" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L247" t="n">
@@ -7308,28 +7332,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="s" s="2">
+      <c r="A249" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B249" t="s" s="2">
+      <c r="B249" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C249" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D249" t="s" s="2">
+      <c r="C249" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D249" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E249" t="s" s="2">
+      <c r="E249" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F249" t="s" s="2">
+      <c r="F249" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G249" t="s" s="2">
+      <c r="G249" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H249" t="s" s="2">
+      <c r="H249" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7354,28 +7378,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="B251" t="s" s="2">
+      <c r="B251" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C251" t="s" s="2">
+      <c r="C251" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D251" t="s" s="2">
+      <c r="D251" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E251" t="s" s="2">
+      <c r="E251" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F251" t="s" s="2">
+      <c r="F251" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G251" t="s" s="2">
+      <c r="G251" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H251" t="s" s="2">
+      <c r="H251" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I251" t="s" s="2">
+      <c r="I251" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7521,10 +7545,10 @@
       <c r="I256">
         <f>((C256-C255)^2+(D256- D255)^2)^.5</f>
       </c>
-      <c r="J256" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K256" s="2" t="s">
+      <c r="J256" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K256" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L256" t="n">
@@ -7568,28 +7592,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="s" s="2">
+      <c r="A258" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B258" t="s" s="2">
+      <c r="B258" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C258" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D258" t="s" s="2">
+      <c r="C258" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D258" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E258" t="s" s="2">
+      <c r="E258" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F258" t="s" s="2">
+      <c r="F258" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G258" t="s" s="2">
+      <c r="G258" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H258" t="s" s="2">
+      <c r="H258" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7614,28 +7638,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="B260" t="s" s="2">
+      <c r="B260" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C260" t="s" s="2">
+      <c r="C260" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D260" t="s" s="2">
+      <c r="D260" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E260" t="s" s="2">
+      <c r="E260" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F260" t="s" s="2">
+      <c r="F260" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G260" t="s" s="2">
+      <c r="G260" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H260" t="s" s="2">
+      <c r="H260" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I260" t="s" s="2">
+      <c r="I260" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7723,10 +7747,10 @@
       <c r="I263">
         <f>((C263-C262)^2+(D263- D262)^2)^.5</f>
       </c>
-      <c r="J263" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K263" s="2" t="s">
+      <c r="J263" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K263" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L263" t="n">
@@ -7770,28 +7794,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="s" s="2">
+      <c r="A265" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B265" t="s" s="2">
+      <c r="B265" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C265" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D265" t="s" s="2">
+      <c r="C265" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D265" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E265" t="s" s="2">
+      <c r="E265" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F265" t="s" s="2">
+      <c r="F265" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G265" t="s" s="2">
+      <c r="G265" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H265" t="s" s="2">
+      <c r="H265" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7816,28 +7840,28 @@
       </c>
     </row>
     <row r="267">
-      <c r="B267" t="s" s="2">
+      <c r="B267" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C267" t="s" s="2">
+      <c r="C267" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D267" t="s" s="2">
+      <c r="D267" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E267" t="s" s="2">
+      <c r="E267" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F267" t="s" s="2">
+      <c r="F267" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G267" t="s" s="2">
+      <c r="G267" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H267" t="s" s="2">
+      <c r="H267" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I267" t="s" s="2">
+      <c r="I267" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7983,10 +8007,10 @@
       <c r="I272">
         <f>((C272-C271)^2+(D272- D271)^2)^.5</f>
       </c>
-      <c r="J272" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K272" s="2" t="s">
+      <c r="J272" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K272" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L272" t="n">
@@ -8030,28 +8054,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="s" s="2">
+      <c r="A274" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B274" t="s" s="2">
+      <c r="B274" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C274" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D274" t="s" s="2">
+      <c r="C274" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D274" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E274" t="s" s="2">
+      <c r="E274" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F274" t="s" s="2">
+      <c r="F274" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G274" t="s" s="2">
+      <c r="G274" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H274" t="s" s="2">
+      <c r="H274" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8076,28 +8100,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="B276" t="s" s="2">
+      <c r="B276" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C276" t="s" s="2">
+      <c r="C276" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D276" t="s" s="2">
+      <c r="D276" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E276" t="s" s="2">
+      <c r="E276" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F276" t="s" s="2">
+      <c r="F276" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G276" t="s" s="2">
+      <c r="G276" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H276" t="s" s="2">
+      <c r="H276" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I276" t="s" s="2">
+      <c r="I276" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8185,10 +8209,10 @@
       <c r="I279">
         <f>((C279-C278)^2+(D279- D278)^2)^.5</f>
       </c>
-      <c r="J279" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K279" s="2" t="s">
+      <c r="J279" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K279" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L279" t="n">
@@ -8232,28 +8256,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="s" s="2">
+      <c r="A281" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B281" t="s" s="2">
+      <c r="B281" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C281" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D281" t="s" s="2">
+      <c r="C281" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D281" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E281" t="s" s="2">
+      <c r="E281" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F281" t="s" s="2">
+      <c r="F281" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G281" t="s" s="2">
+      <c r="G281" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H281" t="s" s="2">
+      <c r="H281" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8278,28 +8302,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="B283" t="s" s="2">
+      <c r="B283" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C283" t="s" s="2">
+      <c r="C283" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D283" t="s" s="2">
+      <c r="D283" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E283" t="s" s="2">
+      <c r="E283" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F283" t="s" s="2">
+      <c r="F283" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G283" t="s" s="2">
+      <c r="G283" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H283" t="s" s="2">
+      <c r="H283" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I283" t="s" s="2">
+      <c r="I283" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8387,10 +8411,10 @@
       <c r="I286">
         <f>((C286-C285)^2+(D286- D285)^2)^.5</f>
       </c>
-      <c r="J286" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K286" s="2" t="s">
+      <c r="J286" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K286" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L286" t="n">
